--- a/Idea2：EasySeminar.xlsx
+++ b/Idea2：EasySeminar.xlsx
@@ -21,12 +21,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">项目!$A$1:$BA$14</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>活动</t>
   </si>
@@ -95,6 +94,9 @@
   </si>
   <si>
     <t>Server动态产生</t>
+  </si>
+  <si>
+    <t>完成时间</t>
   </si>
 </sst>
 </file>
@@ -856,10 +858,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:BQ15"/>
+  <dimension ref="B2:BQ17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="19.5"/>
@@ -1277,8 +1279,15 @@
       <c r="D13" s="16">
         <v>2</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="E13" s="16">
+        <v>2</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:69">
       <c r="B14" s="11" t="s">
@@ -1288,6 +1297,16 @@
     <row r="15" spans="2:69">
       <c r="B15" s="17">
         <v>42693.684027777781</v>
+      </c>
+    </row>
+    <row r="16" spans="2:69">
+      <c r="B16" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="17">
+        <v>42694.895138888889</v>
       </c>
     </row>
   </sheetData>
